--- a/biology/Médecine/Moro_Mandjouf_Sidibé/Moro_Mandjouf_Sidibé.xlsx
+++ b/biology/Médecine/Moro_Mandjouf_Sidibé/Moro_Mandjouf_Sidibé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moro_Mandjouf_Sidib%C3%A9</t>
+          <t>Moro_Mandjouf_Sidibé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Moro Mandjouf Sidibé né le 1er mai 1951 à Conakry, est un médecin et personnalité politique guinéen.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moro_Mandjouf_Sidib%C3%A9</t>
+          <t>Moro_Mandjouf_Sidibé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moro_Mandjouf_Sidib%C3%A9</t>
+          <t>Moro_Mandjouf_Sidibé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,12 +553,14 @@
           <t>Parcours professionnel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence son parcours à l’hôpital préfectoral de Fria puis au CHU Ignace Deen avant de s’exiler en France en 1982.
 Après 10 ans d’exercice en France, il retourne en Guinée en 1998.
 Entre 2006 et 2010, il est directeur général de l’entreprise VIENTOSUR, cumulativement à partir de 2009 ambassadeur itinérant près du président de la république de Guinée jusqu'en 2010.
-Il est conseiller chargé de mission à la force africaine en attente d'Addis-Abeba de 2012 en 2014 et cumulativement CEO de l’entreprise Winkon Trade  Automobile (WTA) de 2011 à nos jours[1].
+Il est conseiller chargé de mission à la force africaine en attente d'Addis-Abeba de 2012 en 2014 et cumulativement CEO de l’entreprise Winkon Trade  Automobile (WTA) de 2011 à nos jours.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Moro_Mandjouf_Sidib%C3%A9</t>
+          <t>Moro_Mandjouf_Sidibé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Parcours politique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été designer président de UDIR le 29 août 2020 pour les élections présidentielle du 18 octobre 2020.
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Moro_Mandjouf_Sidib%C3%A9</t>
+          <t>Moro_Mandjouf_Sidibé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est marié et père de six enfants.
 </t>
